--- a/Report/questionnaire_results.xlsx
+++ b/Report/questionnaire_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Gesture</t>
+  </si>
+  <si>
+    <t>Switch between modalities</t>
+  </si>
+  <si>
+    <t>Looses track</t>
+  </si>
+  <si>
+    <t>Does not react</t>
   </si>
 </sst>
 </file>
@@ -166,13 +175,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -455,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,21 +474,27 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -506,8 +521,14 @@
       <c r="G3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -523,8 +544,14 @@
       <c r="G4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -540,8 +567,14 @@
       <c r="G5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -557,8 +590,14 @@
       <c r="G6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -574,8 +613,14 @@
       <c r="G7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -591,8 +636,14 @@
       <c r="G8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -608,8 +659,14 @@
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -625,8 +682,14 @@
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -642,8 +705,14 @@
       <c r="G11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -659,8 +728,14 @@
       <c r="G12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -676,8 +751,14 @@
       <c r="G13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -693,8 +774,14 @@
       <c r="G14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -710,8 +797,14 @@
       <c r="G15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -727,8 +820,14 @@
       <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -744,8 +843,14 @@
       <c r="G17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -761,8 +866,14 @@
       <c r="G18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -778,8 +889,14 @@
       <c r="G19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -795,8 +912,14 @@
       <c r="G20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -812,8 +935,14 @@
       <c r="G21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -829,8 +958,14 @@
       <c r="G22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -846,8 +981,14 @@
       <c r="G23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -863,38 +1004,54 @@
       <c r="G24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="C25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>0.21875</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -919,8 +1076,20 @@
       <c r="I27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -948,8 +1117,20 @@
       <c r="I28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>32</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -977,8 +1158,20 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1006,6 +1199,18 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1020,8 +1225,14 @@
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1034,8 +1245,11 @@
       <c r="F34" t="s">
         <v>24</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1045,7 +1259,7 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1059,8 +1273,11 @@
       <c r="F38" t="s">
         <v>25</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -1070,6 +1287,9 @@
       <c r="F39" t="s">
         <v>27</v>
       </c>
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -1080,223 +1300,225 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A45:Q55"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
